--- a/Document/2_DataBase/data 예상도2.xlsx
+++ b/Document/2_DataBase/data 예상도2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\spring-workspace\bookstore\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\spring-workspace\bookstore\Document\2_DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3351B6AD-CDFF-49D5-A73A-B195584BA41D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63AEDD5-D26F-41DF-A5C5-06F2543F51A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="690" windowWidth="13590" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="86">
   <si>
     <t>varchar2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,14 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BOOK_SALE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOK_RENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BUYLIST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,49 +123,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUY_REVIEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RENT_REVIEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>varchar2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QUESTION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,6 +351,22 @@
   </si>
   <si>
     <t>RENTCARTLIST_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUYREVIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENTREVIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOKSALE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOKRENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,6 +532,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,9 +542,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -830,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -845,47 +841,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="H2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="M2" s="13" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="M2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="Q2" s="13" t="s">
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="Q2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="U2" s="13" t="s">
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="U2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>0</v>
@@ -894,49 +890,49 @@
         <v>6</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="V3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>4</v>
@@ -945,78 +941,78 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="V4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
@@ -1025,21 +1021,21 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
@@ -1048,21 +1044,21 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H8" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
@@ -1070,54 +1066,54 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
       <c r="H9" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D10" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>4</v>
@@ -1130,38 +1126,38 @@
       <c r="W11" s="8"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
@@ -1170,25 +1166,25 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
@@ -1197,74 +1193,74 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="H16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
       <c r="M16" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
+      <c r="U16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="V17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
@@ -1273,183 +1269,183 @@
         <v>0</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H19" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="V19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="D20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
       <c r="U20" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D21" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D23" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="V23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M25" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="V25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="H26" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="H26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
       <c r="M26" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -1457,25 +1453,25 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="H27" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H28" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>4</v>
@@ -1488,40 +1484,40 @@
       <c r="W28" s="6"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D29" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="D29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
       <c r="H29" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D30" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D31" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>4</v>
@@ -1530,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
@@ -1544,14 +1540,14 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
@@ -1562,13 +1558,13 @@
     </row>
     <row r="33" spans="4:15" x14ac:dyDescent="0.3">
       <c r="M33" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="4:15" x14ac:dyDescent="0.3">
@@ -1576,24 +1572,29 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="M34" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="4:15" x14ac:dyDescent="0.3">
       <c r="M35" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="M21:O21"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="U16:W16"/>
@@ -1605,11 +1606,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="M21:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/2_DataBase/data 예상도2.xlsx
+++ b/Document/2_DataBase/data 예상도2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\spring-workspace\bookstore\Document\2_DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63AEDD5-D26F-41DF-A5C5-06F2543F51A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFC341B-A143-40A7-82A2-ED7C978AD3C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="690" windowWidth="13590" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="8550" windowWidth="18765" windowHeight="6600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="87">
   <si>
     <t>varchar2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +367,10 @@
   </si>
   <si>
     <t>BOOKRENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">테이블 개수 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,9 +536,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,6 +543,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -827,7 +831,7 @@
   <dimension ref="A2:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -841,31 +845,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D2" s="10" t="s">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="M2" s="10" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="M2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="Q2" s="10" t="s">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="Q2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="U2" s="10" t="s">
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="U2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D3" s="5" t="s">
@@ -1066,11 +1076,11 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="H9" s="9" t="s">
         <v>45</v>
       </c>
@@ -1126,11 +1136,11 @@
       <c r="W11" s="8"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1149,11 +1159,11 @@
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -1199,11 +1209,11 @@
       <c r="C16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
       <c r="M16" s="1" t="s">
         <v>60</v>
       </c>
@@ -1211,11 +1221,11 @@
       <c r="O16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="10" t="s">
+      <c r="U16" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -1299,11 +1309,11 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
       <c r="U20" s="1" t="s">
         <v>74</v>
       </c>
@@ -1322,11 +1332,11 @@
       <c r="F21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D22" s="3" t="s">
@@ -1347,11 +1357,11 @@
       <c r="O22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U22" s="10" t="s">
+      <c r="U22" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D23" s="3" t="s">
@@ -1428,11 +1438,11 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
       <c r="M26" s="1" t="s">
         <v>65</v>
       </c>
@@ -1484,11 +1494,11 @@
       <c r="W28" s="6"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
       <c r="H29" s="3" t="s">
         <v>75</v>
       </c>
@@ -1509,11 +1519,11 @@
       <c r="F30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M30" s="10" t="s">
+      <c r="M30" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D31" s="3" t="s">
@@ -1590,11 +1600,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="M21:O21"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="U16:W16"/>
@@ -1606,6 +1611,11 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H26:J26"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="M21:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
